--- a/data/trans_orig/Q5407-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6129</v>
+        <v>5445</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006009357313693556</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0209481329003754</v>
+        <v>0.01860859031035004</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>11566</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6325</v>
+        <v>6396</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19396</v>
+        <v>19169</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03372679316223073</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01844328510265752</v>
+        <v>0.01865143191849236</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0565575976470693</v>
+        <v>0.05589691924017197</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -786,19 +786,19 @@
         <v>13324</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7495</v>
+        <v>7354</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21421</v>
+        <v>22262</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02096607936747844</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01179357145820366</v>
+        <v>0.01157124641179736</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03370606389127723</v>
+        <v>0.03503019835827015</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>10902</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5936</v>
+        <v>5557</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19993</v>
+        <v>18944</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0372621443231933</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02028949681817348</v>
+        <v>0.01899440906837609</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06833338125991612</v>
+        <v>0.0647469715252874</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -836,19 +836,19 @@
         <v>18448</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11568</v>
+        <v>11567</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27275</v>
+        <v>28196</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05379328339566938</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03373254783497033</v>
+        <v>0.03372867441494488</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0795334051490669</v>
+        <v>0.08221987415710655</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -857,19 +857,19 @@
         <v>29350</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20286</v>
+        <v>20241</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40512</v>
+        <v>40086</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04618258175797631</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03192066583541605</v>
+        <v>0.03184910207211659</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06374689494051192</v>
+        <v>0.06307611287259228</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>279922</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>271055</v>
+        <v>271860</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>285403</v>
+        <v>285906</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9567284983631131</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9264202142870281</v>
+        <v>0.9291721889906935</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9754607711481915</v>
+        <v>0.9771783378590787</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>339</v>
@@ -907,19 +907,19 @@
         <v>312920</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>301582</v>
+        <v>301101</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>321309</v>
+        <v>322064</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9124799234420999</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8794172379093467</v>
+        <v>0.8780136390687699</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9369410495907823</v>
+        <v>0.9391424722020772</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>629</v>
@@ -928,19 +928,19 @@
         <v>592843</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>580141</v>
+        <v>578407</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>604046</v>
+        <v>603929</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9328513388745453</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9128647991808468</v>
+        <v>0.9101358562304713</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9504799771846512</v>
+        <v>0.9502961968102923</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>8402</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3905</v>
+        <v>3833</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14867</v>
+        <v>15378</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04003172904349238</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01860324868435092</v>
+        <v>0.01826110475072352</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07083681032616646</v>
+        <v>0.07327041200501344</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -1053,19 +1053,19 @@
         <v>26814</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18076</v>
+        <v>17138</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>39302</v>
+        <v>38419</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08030396728989686</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05413497932031318</v>
+        <v>0.05132533893242085</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1177029109901969</v>
+        <v>0.1150600074802771</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -1074,19 +1074,19 @@
         <v>35216</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>24691</v>
+        <v>24637</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>49218</v>
+        <v>48209</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06476038810765906</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04540561271683815</v>
+        <v>0.0453068156811818</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09050951023181927</v>
+        <v>0.08865348324960903</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>29513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21514</v>
+        <v>20550</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>40288</v>
+        <v>40620</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1406177139001744</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1025052173076461</v>
+        <v>0.09791215637121042</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1919568247705216</v>
+        <v>0.1935359015205721</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>53</v>
@@ -1124,19 +1124,19 @@
         <v>61797</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47160</v>
+        <v>46493</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>77752</v>
+        <v>76796</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1850715741413217</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1412370790551895</v>
+        <v>0.1392381551721743</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2328558802040882</v>
+        <v>0.2299912420079289</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>85</v>
@@ -1145,19 +1145,19 @@
         <v>91310</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>74264</v>
+        <v>74604</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>110148</v>
+        <v>110770</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1679140451163215</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1365680175669879</v>
+        <v>0.1371929731873636</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2025554945558252</v>
+        <v>0.2036991805323343</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>171968</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>160446</v>
+        <v>160470</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>182512</v>
+        <v>181977</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8193505570563332</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7644526391876</v>
+        <v>0.7645685550192926</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8695884191812846</v>
+        <v>0.8670393965225054</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>213</v>
@@ -1195,19 +1195,19 @@
         <v>245297</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>228292</v>
+        <v>227554</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>261096</v>
+        <v>260969</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7346244585687814</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6836980387299363</v>
+        <v>0.6814858083123349</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7819392760533613</v>
+        <v>0.78156083595312</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>392</v>
@@ -1216,19 +1216,19 @@
         <v>417265</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>398035</v>
+        <v>394224</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>437593</v>
+        <v>436594</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7673255667760194</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7319629639538102</v>
+        <v>0.7249552215271887</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8047083849407631</v>
+        <v>0.8028702687971165</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>10160</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5219</v>
+        <v>5382</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18270</v>
+        <v>16991</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02022070351753216</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0103857860136475</v>
+        <v>0.01071092635322076</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03636025104512273</v>
+        <v>0.0338151960528918</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>36</v>
@@ -1341,19 +1341,19 @@
         <v>38380</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26706</v>
+        <v>27971</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52318</v>
+        <v>52113</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05670481792306725</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03945668250344008</v>
+        <v>0.04132545520343352</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07729658119088308</v>
+        <v>0.07699462393335799</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -1362,19 +1362,19 @@
         <v>48540</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>36315</v>
+        <v>36073</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>63928</v>
+        <v>63351</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04116008560932766</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03079325108939423</v>
+        <v>0.03058844268970411</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05420833659400453</v>
+        <v>0.05371854152580184</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>40416</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29649</v>
+        <v>30477</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52490</v>
+        <v>55443</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08043437796459244</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05900717343362737</v>
+        <v>0.06065437084536378</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1044649370696585</v>
+        <v>0.1103416697779704</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -1412,19 +1412,19 @@
         <v>80244</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64206</v>
+        <v>64208</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97957</v>
+        <v>97670</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1185571054138482</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09486148931228736</v>
+        <v>0.09486397176054281</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1447271581509527</v>
+        <v>0.1443024763747686</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>116</v>
@@ -1433,19 +1433,19 @@
         <v>120660</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>101295</v>
+        <v>102096</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143345</v>
+        <v>141687</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1023142116798447</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08589376779862201</v>
+        <v>0.08657291640254704</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1215498101655252</v>
+        <v>0.1201445294809417</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>451890</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>438273</v>
+        <v>435923</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>464297</v>
+        <v>462814</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8993449185178755</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8722447262651011</v>
+        <v>0.8675663120536183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9240356724085217</v>
+        <v>0.9210859035042662</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>552</v>
@@ -1483,19 +1483,19 @@
         <v>558217</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>536716</v>
+        <v>535947</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>577710</v>
+        <v>577143</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8247380766630845</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7929703169865571</v>
+        <v>0.7918341290314475</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.853537008522698</v>
+        <v>0.8526993569999169</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1021</v>
@@ -1504,19 +1504,19 @@
         <v>1010108</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>982564</v>
+        <v>985709</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1032455</v>
+        <v>1033098</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8565257027108276</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8331700646599232</v>
+        <v>0.8358365180710517</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8754754483033093</v>
+        <v>0.8760207029452318</v>
       </c>
     </row>
     <row r="15">
@@ -1846,19 +1846,19 @@
         <v>12097</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6721</v>
+        <v>6359</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20184</v>
+        <v>20403</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03905100423187722</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02169573498426726</v>
+        <v>0.02052625461942386</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06515566726857774</v>
+        <v>0.06586118423786737</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -1867,19 +1867,19 @@
         <v>17829</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10651</v>
+        <v>10892</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29488</v>
+        <v>28390</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05036532205771205</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03008752181668662</v>
+        <v>0.03076922347679267</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08329957590249078</v>
+        <v>0.0801991032176616</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -1888,19 +1888,19 @@
         <v>29927</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19337</v>
+        <v>21156</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42145</v>
+        <v>42786</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04508494632892775</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02913175703911304</v>
+        <v>0.03187202679218787</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06349260169540707</v>
+        <v>0.06445816587576271</v>
       </c>
     </row>
     <row r="5">
@@ -1917,19 +1917,19 @@
         <v>12257</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5885</v>
+        <v>6175</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20889</v>
+        <v>22177</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03956488031058056</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01899682230928087</v>
+        <v>0.01993291470787177</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06742915227109911</v>
+        <v>0.07158725061622397</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -1938,19 +1938,19 @@
         <v>27163</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18196</v>
+        <v>18321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38601</v>
+        <v>38955</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07673359169982319</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05140076913728607</v>
+        <v>0.05175447819269467</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1090444106261846</v>
+        <v>0.1100429742703003</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -1959,19 +1959,19 @@
         <v>39420</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28443</v>
+        <v>28213</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52076</v>
+        <v>52771</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05938700797192052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04284927137681196</v>
+        <v>0.04250401024132204</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07845374367852735</v>
+        <v>0.07950080403957097</v>
       </c>
     </row>
     <row r="6">
@@ -1988,19 +1988,19 @@
         <v>285432</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>275328</v>
+        <v>273266</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>294591</v>
+        <v>293855</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9213841154575422</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8887682923967413</v>
+        <v>0.882113422954809</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9509490965157037</v>
+        <v>0.9485739794286715</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>301</v>
@@ -2009,19 +2009,19 @@
         <v>309003</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>294100</v>
+        <v>292788</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>320414</v>
+        <v>320572</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8729010862424648</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8308006204862717</v>
+        <v>0.8270953088586829</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9051341588794406</v>
+        <v>0.9055803610440653</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>560</v>
@@ -2030,19 +2030,19 @@
         <v>594435</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>578238</v>
+        <v>575838</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>608852</v>
+        <v>608790</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8955280456991517</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.871126844814021</v>
+        <v>0.8675099933247185</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9172470156336777</v>
+        <v>0.9171533411618942</v>
       </c>
     </row>
     <row r="7">
@@ -2134,19 +2134,19 @@
         <v>22756</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14873</v>
+        <v>14962</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35271</v>
+        <v>34316</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09107696775937854</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05952884457599595</v>
+        <v>0.0598829752704433</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1411697350968237</v>
+        <v>0.1373439125941668</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>64</v>
@@ -2155,19 +2155,19 @@
         <v>71101</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55663</v>
+        <v>55645</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>88221</v>
+        <v>87725</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1827896406429548</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1430991171741937</v>
+        <v>0.1430545223832289</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2268005757470009</v>
+        <v>0.2255263743245269</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>83</v>
@@ -2176,19 +2176,19 @@
         <v>93857</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>77737</v>
+        <v>74153</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>115686</v>
+        <v>114663</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1469201684309618</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1216871038350446</v>
+        <v>0.11607552049632</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1810902502623201</v>
+        <v>0.1794884891886904</v>
       </c>
     </row>
     <row r="9">
@@ -2205,19 +2205,19 @@
         <v>42316</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29864</v>
+        <v>30433</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>56754</v>
+        <v>57362</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1693649510223</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1195267079559146</v>
+        <v>0.1218064207030713</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2271531426384056</v>
+        <v>0.2295862301420057</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>69</v>
@@ -2226,19 +2226,19 @@
         <v>76021</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>60272</v>
+        <v>61025</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>92616</v>
+        <v>93314</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1954373819279133</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1549495675911854</v>
+        <v>0.1568861495799039</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2381012155165071</v>
+        <v>0.2398950114902403</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>104</v>
@@ -2247,19 +2247,19 @@
         <v>118337</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>99289</v>
+        <v>99497</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>139069</v>
+        <v>142530</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1852402705967978</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1554236141110519</v>
+        <v>0.1557490546038995</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2176930202875678</v>
+        <v>0.2231102580034382</v>
       </c>
     </row>
     <row r="10">
@@ -2276,19 +2276,19 @@
         <v>184779</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>168786</v>
+        <v>167923</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>198481</v>
+        <v>199815</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7395580812183215</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6755461181983099</v>
+        <v>0.6720931041172653</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7943965857351782</v>
+        <v>0.7997382456835513</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>217</v>
@@ -2297,19 +2297,19 @@
         <v>241857</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>220353</v>
+        <v>222436</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>259770</v>
+        <v>261385</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6217729774291318</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5664900320060906</v>
+        <v>0.5718450686796703</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6678241274075652</v>
+        <v>0.6719770650099136</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>385</v>
@@ -2318,19 +2318,19 @@
         <v>426636</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>400932</v>
+        <v>398326</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>453007</v>
+        <v>452350</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6678395609722405</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6276031717483824</v>
+        <v>0.6235240601805945</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7091201795290868</v>
+        <v>0.7080909565463325</v>
       </c>
     </row>
     <row r="11">
@@ -2422,19 +2422,19 @@
         <v>34853</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24329</v>
+        <v>24805</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48927</v>
+        <v>48046</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06227807919669241</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0434731664932234</v>
+        <v>0.04432283558927154</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08742673051036244</v>
+        <v>0.08585212469473634</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>81</v>
@@ -2443,19 +2443,19 @@
         <v>88930</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>71927</v>
+        <v>71640</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>109943</v>
+        <v>108566</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1196950826133664</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09680920976593393</v>
+        <v>0.09642333827744194</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1479762179473668</v>
+        <v>0.1461233680033835</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>112</v>
@@ -2464,19 +2464,19 @@
         <v>123784</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>100725</v>
+        <v>103593</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>146797</v>
+        <v>147589</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09502719933632449</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07732530824385665</v>
+        <v>0.07952689489519962</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1126947218215579</v>
+        <v>0.1133022779523005</v>
       </c>
     </row>
     <row r="13">
@@ -2493,19 +2493,19 @@
         <v>54573</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41143</v>
+        <v>40717</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70388</v>
+        <v>73218</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09751433032443246</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07351770140351449</v>
+        <v>0.0727561974816541</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1257750894463307</v>
+        <v>0.1308313555037759</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -2514,19 +2514,19 @@
         <v>103184</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83192</v>
+        <v>84631</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123524</v>
+        <v>124369</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.138880072357487</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1119720410530316</v>
+        <v>0.1139087140032675</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1662558507235981</v>
+        <v>0.1673938018670999</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -2535,19 +2535,19 @@
         <v>157757</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>135594</v>
+        <v>133683</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>184024</v>
+        <v>182821</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1211082410981203</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1040939801280105</v>
+        <v>0.1026268728864224</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1412727824450771</v>
+        <v>0.1403491602867249</v>
       </c>
     </row>
     <row r="14">
@@ -2564,19 +2564,19 @@
         <v>470211</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>449688</v>
+        <v>449916</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>487125</v>
+        <v>487638</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8402075904788752</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8035349441778581</v>
+        <v>0.8039426017139168</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.870429819246837</v>
+        <v>0.8713471998648797</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>518</v>
@@ -2585,19 +2585,19 @@
         <v>550860</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>524651</v>
+        <v>525941</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>574967</v>
+        <v>575007</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7414248450291466</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7061490678337535</v>
+        <v>0.7078845511368418</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7738711438597647</v>
+        <v>0.7739247741532866</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>945</v>
@@ -2606,19 +2606,19 @@
         <v>1021071</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>988393</v>
+        <v>988587</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1051290</v>
+        <v>1050326</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7838645595655552</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.758778019441255</v>
+        <v>0.7589267824141088</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8070634109814018</v>
+        <v>0.8063230312152294</v>
       </c>
     </row>
     <row r="15">
@@ -2948,19 +2948,19 @@
         <v>11340</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5838</v>
+        <v>6331</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19686</v>
+        <v>20218</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03391728403810391</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01746245136699954</v>
+        <v>0.01893587897322057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05888222118364625</v>
+        <v>0.06047439956204046</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2969,19 +2969,19 @@
         <v>8751</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4040</v>
+        <v>3759</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17612</v>
+        <v>16153</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0231653971724425</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0106937785685086</v>
+        <v>0.00995192346837266</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04662289818985775</v>
+        <v>0.04276011077225297</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2990,19 +2990,19 @@
         <v>20091</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12706</v>
+        <v>12677</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31524</v>
+        <v>32083</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02821345039761271</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01784360643064308</v>
+        <v>0.01780252935015258</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04426894183450275</v>
+        <v>0.04505448725707551</v>
       </c>
     </row>
     <row r="5">
@@ -3019,19 +3019,19 @@
         <v>9004</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4058</v>
+        <v>4071</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15612</v>
+        <v>17029</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02693160510425075</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01213646631925891</v>
+        <v>0.01217562583299649</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04669615071291899</v>
+        <v>0.05093354540017016</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -3040,19 +3040,19 @@
         <v>39916</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29085</v>
+        <v>27907</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52751</v>
+        <v>52042</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1056646535927641</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07699363907079373</v>
+        <v>0.07387392026576607</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1396399380615199</v>
+        <v>0.137763245269979</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>46</v>
@@ -3061,19 +3061,19 @@
         <v>48920</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36730</v>
+        <v>36732</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>63394</v>
+        <v>66021</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06869917727071827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05158028168484295</v>
+        <v>0.0515831149032776</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08902560252947639</v>
+        <v>0.09271356622586856</v>
       </c>
     </row>
     <row r="6">
@@ -3090,19 +3090,19 @@
         <v>313986</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>303886</v>
+        <v>303191</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>320814</v>
+        <v>321269</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9391511108576454</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9089415395754468</v>
+        <v>0.9068608646324041</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9595720501200896</v>
+        <v>0.9609344720026229</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>309</v>
@@ -3111,19 +3111,19 @@
         <v>329095</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>313920</v>
+        <v>315866</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>341281</v>
+        <v>341964</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8711699492347934</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8309996299529918</v>
+        <v>0.8361496171172392</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9034293402496043</v>
+        <v>0.905236351753434</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>614</v>
@@ -3132,19 +3132,19 @@
         <v>643081</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>625773</v>
+        <v>624971</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>657151</v>
+        <v>657615</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.903087372331669</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8787815894052261</v>
+        <v>0.8776552307476436</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9228458517127147</v>
+        <v>0.923497439516848</v>
       </c>
     </row>
     <row r="7">
@@ -3236,19 +3236,19 @@
         <v>20921</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13191</v>
+        <v>13659</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29329</v>
+        <v>30012</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08140368666281508</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05132847647189897</v>
+        <v>0.0531487014769486</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1141204024925647</v>
+        <v>0.1167787154564157</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -3257,19 +3257,19 @@
         <v>46699</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>33962</v>
+        <v>34160</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63453</v>
+        <v>63839</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1166986684300541</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08487001156876255</v>
+        <v>0.08536389112092539</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1585651693244842</v>
+        <v>0.1595296833876104</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>59</v>
@@ -3278,19 +3278,19 @@
         <v>67620</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>52698</v>
+        <v>51278</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>86104</v>
+        <v>83818</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1028958759055284</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08018948641784922</v>
+        <v>0.07802949428959507</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1310223582058912</v>
+        <v>0.1275445063883379</v>
       </c>
     </row>
     <row r="9">
@@ -3307,19 +3307,19 @@
         <v>41474</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31208</v>
+        <v>31377</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>53184</v>
+        <v>53627</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1613792739874755</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1214310813090487</v>
+        <v>0.1220907217962389</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2069446625532435</v>
+        <v>0.2086667575405831</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>72</v>
@@ -3328,19 +3328,19 @@
         <v>93947</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>78310</v>
+        <v>75296</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>115508</v>
+        <v>114353</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2347695564709951</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1956912292194474</v>
+        <v>0.1881609859517924</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2886483165024694</v>
+        <v>0.285762390430414</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>120</v>
@@ -3349,19 +3349,19 @@
         <v>135422</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>114524</v>
+        <v>114896</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>159045</v>
+        <v>157119</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2060688519596072</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1742694439305848</v>
+        <v>0.1748356330904857</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2420157382673647</v>
+        <v>0.2390848391996933</v>
       </c>
     </row>
     <row r="10">
@@ -3378,19 +3378,19 @@
         <v>194603</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>181116</v>
+        <v>181786</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>207656</v>
+        <v>206647</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7572170393497094</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7047385288495934</v>
+        <v>0.7073432198891058</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8080054027767701</v>
+        <v>0.8040793803953741</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>194</v>
@@ -3399,19 +3399,19 @@
         <v>259522</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>237504</v>
+        <v>237302</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>278939</v>
+        <v>280631</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6485317750989508</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5935102639063955</v>
+        <v>0.5930040975129238</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6970533357338778</v>
+        <v>0.7012823617498247</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>424</v>
@@ -3420,19 +3420,19 @@
         <v>454126</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>426361</v>
+        <v>428470</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>478163</v>
+        <v>478921</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6910352721348644</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6487871201705581</v>
+        <v>0.6519961895474112</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7276124917365392</v>
+        <v>0.7287663748028614</v>
       </c>
     </row>
     <row r="11">
@@ -3524,19 +3524,19 @@
         <v>32260</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22719</v>
+        <v>22705</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>44770</v>
+        <v>44076</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05455542492048411</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03841946899603207</v>
+        <v>0.03839651981404961</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07571147070956769</v>
+        <v>0.0745368441144748</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -3545,19 +3545,19 @@
         <v>55450</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40790</v>
+        <v>40326</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>71823</v>
+        <v>72594</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07127906732042735</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0524339280705819</v>
+        <v>0.05183689006502288</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09232630200753714</v>
+        <v>0.09331660590668518</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>78</v>
@@ -3566,19 +3566,19 @@
         <v>87710</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>71483</v>
+        <v>69643</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>107889</v>
+        <v>106731</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0640567974664135</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05220579155340997</v>
+        <v>0.05086185222670032</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07879351250198061</v>
+        <v>0.07794782986497031</v>
       </c>
     </row>
     <row r="13">
@@ -3595,19 +3595,19 @@
         <v>50478</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38892</v>
+        <v>37802</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62378</v>
+        <v>63121</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08536412006329425</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06577108377846161</v>
+        <v>0.06392744277015769</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1054885921274278</v>
+        <v>0.1067445749666216</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -3616,19 +3616,19 @@
         <v>133864</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>112500</v>
+        <v>111568</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>155619</v>
+        <v>158653</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1720764301515288</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1446148164558944</v>
+        <v>0.1434168353646848</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2000424032878867</v>
+        <v>0.2039422198086349</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>166</v>
@@ -3637,19 +3637,19 @@
         <v>184342</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158917</v>
+        <v>159991</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>209742</v>
+        <v>213256</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1346288641162563</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1160608427974742</v>
+        <v>0.1168450446537715</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1531794422695494</v>
+        <v>0.1557455089207319</v>
       </c>
     </row>
     <row r="14">
@@ -3666,19 +3666,19 @@
         <v>508590</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>492841</v>
+        <v>492349</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>524650</v>
+        <v>523682</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8600804550162217</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8334477489397327</v>
+        <v>0.8326159561442354</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8872399086711945</v>
+        <v>0.8856028143615609</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>503</v>
@@ -3687,19 +3687,19 @@
         <v>588617</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>563044</v>
+        <v>562186</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>612537</v>
+        <v>614039</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7566445025280438</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7237715648372001</v>
+        <v>0.7226681359290479</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7873928545081841</v>
+        <v>0.7893232692808138</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1038</v>
@@ -3708,19 +3708,19 @@
         <v>1097207</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1069500</v>
+        <v>1065959</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1126965</v>
+        <v>1126778</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8013143384173302</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7810790785032671</v>
+        <v>0.7784933662125165</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8230474518599463</v>
+        <v>0.8229110071611139</v>
       </c>
     </row>
     <row r="15">
@@ -4050,19 +4050,19 @@
         <v>11386</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6968</v>
+        <v>6767</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17833</v>
+        <v>17547</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02796977219001055</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01711795816681426</v>
+        <v>0.01662277148838674</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04380743103703141</v>
+        <v>0.04310406186531498</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -4071,19 +4071,19 @@
         <v>15908</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10644</v>
+        <v>10957</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21929</v>
+        <v>22793</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03630892770838781</v>
+        <v>0.0363089277083878</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02429472183728212</v>
+        <v>0.02500865561139449</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05005230905352392</v>
+        <v>0.0520229086538633</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -4092,19 +4092,19 @@
         <v>27294</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20569</v>
+        <v>20037</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36689</v>
+        <v>36008</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03229250810437402</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02433653632029543</v>
+        <v>0.02370614323099259</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04340814149763622</v>
+        <v>0.04260321060547367</v>
       </c>
     </row>
     <row r="5">
@@ -4121,19 +4121,19 @@
         <v>19596</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13556</v>
+        <v>13411</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28168</v>
+        <v>27677</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04813743184497417</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03330098948040165</v>
+        <v>0.03294501197310239</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06919409671251221</v>
+        <v>0.06798821443782324</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>78</v>
@@ -4142,19 +4142,19 @@
         <v>43170</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35355</v>
+        <v>34646</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53062</v>
+        <v>52857</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.09853378789607099</v>
+        <v>0.09853378789607098</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08069572382866999</v>
+        <v>0.07907801195799372</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1211115417491524</v>
+        <v>0.1206433773190608</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>108</v>
@@ -4163,19 +4163,19 @@
         <v>62766</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>52343</v>
+        <v>51738</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>76718</v>
+        <v>74290</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07426119674839178</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06192961118679523</v>
+        <v>0.0612129843975671</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09076785257674563</v>
+        <v>0.08789533209082583</v>
       </c>
     </row>
     <row r="6">
@@ -4192,19 +4192,19 @@
         <v>376098</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>366585</v>
+        <v>367013</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>384244</v>
+        <v>383933</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9238927959650152</v>
+        <v>0.9238927959650154</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9005226957680345</v>
+        <v>0.9015735379377786</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.943902342470361</v>
+        <v>0.9431397640253721</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>718</v>
@@ -4213,19 +4213,19 @@
         <v>379048</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>366961</v>
+        <v>368025</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>387871</v>
+        <v>388502</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.8651572843955413</v>
+        <v>0.8651572843955411</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8375697771908833</v>
+        <v>0.8399981101033283</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8852955817751115</v>
+        <v>0.8867354500100425</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1240</v>
@@ -4234,19 +4234,19 @@
         <v>755146</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>737786</v>
+        <v>740547</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>767201</v>
+        <v>767920</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8934462951472342</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8729072152097829</v>
+        <v>0.8761731191890616</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9077083434525193</v>
+        <v>0.9085599924123203</v>
       </c>
     </row>
     <row r="7">
@@ -4338,19 +4338,19 @@
         <v>30193</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>23356</v>
+        <v>22210</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>40110</v>
+        <v>38972</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09792998610488932</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07575545640262192</v>
+        <v>0.07203905050283693</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1300981837755846</v>
+        <v>0.1264058971149346</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>173</v>
@@ -4359,19 +4359,19 @@
         <v>88713</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>75796</v>
+        <v>76430</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>101396</v>
+        <v>101575</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1916771059618081</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1637672792969241</v>
+        <v>0.1651370722141125</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.219081670804398</v>
+        <v>0.2194676205680053</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>226</v>
@@ -4380,19 +4380,19 @@
         <v>118905</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>104395</v>
+        <v>105345</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>135596</v>
+        <v>135583</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1541959736075944</v>
+        <v>0.1541959736075943</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1353794170165126</v>
+        <v>0.1366112644608166</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.175840307569177</v>
+        <v>0.17582337636494</v>
       </c>
     </row>
     <row r="9">
@@ -4409,19 +4409,19 @@
         <v>45789</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>36088</v>
+        <v>36487</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>56183</v>
+        <v>57176</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1485165943357063</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1170528982978152</v>
+        <v>0.1183473977264014</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1822296040661442</v>
+        <v>0.1854505568030337</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>232</v>
@@ -4430,19 +4430,19 @@
         <v>126368</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>111983</v>
+        <v>112332</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>141772</v>
+        <v>141171</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2730364948245441</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2419546174541513</v>
+        <v>0.2427089285947991</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3063196418741788</v>
+        <v>0.3050195346035827</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>300</v>
@@ -4451,19 +4451,19 @@
         <v>172157</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>154420</v>
+        <v>153584</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>191378</v>
+        <v>189478</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2232520654140313</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2002516130111846</v>
+        <v>0.1991671381785876</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2481778799417005</v>
+        <v>0.2457139850496912</v>
       </c>
     </row>
     <row r="10">
@@ -4480,19 +4480,19 @@
         <v>232326</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>220552</v>
+        <v>218411</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>244929</v>
+        <v>243431</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7535534195594044</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7153638801347942</v>
+        <v>0.7084209799745653</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.794432843854094</v>
+        <v>0.7895730852395101</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>473</v>
@@ -4501,19 +4501,19 @@
         <v>247744</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>230202</v>
+        <v>231874</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>262354</v>
+        <v>264293</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5352863992136476</v>
+        <v>0.5352863992136477</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4973843129221441</v>
+        <v>0.5009962658064772</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5668531955257254</v>
+        <v>0.5710441309030365</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>808</v>
@@ -4522,19 +4522,19 @@
         <v>480070</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>457976</v>
+        <v>459069</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>500618</v>
+        <v>499811</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6225519609783743</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5939014550342681</v>
+        <v>0.5953176800399702</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6491983187836728</v>
+        <v>0.6481526011816341</v>
       </c>
     </row>
     <row r="11">
@@ -4626,19 +4626,19 @@
         <v>41578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32620</v>
+        <v>31523</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51939</v>
+        <v>52977</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0581202277729003</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04559833276980587</v>
+        <v>0.04406387680519232</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07260274942774764</v>
+        <v>0.0740534160547147</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>202</v>
@@ -4647,19 +4647,19 @@
         <v>104621</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>91664</v>
+        <v>91058</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>120346</v>
+        <v>119959</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.1161226921017878</v>
+        <v>0.1161226921017877</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.101741846141452</v>
+        <v>0.1010686764686682</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1335761158512484</v>
+        <v>0.1331469758199245</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>273</v>
@@ -4668,19 +4668,19 @@
         <v>146199</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>127901</v>
+        <v>130141</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>163750</v>
+        <v>165409</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09045095679517351</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07912994152417162</v>
+        <v>0.08051584672122492</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1013093947260331</v>
+        <v>0.1023355617437347</v>
       </c>
     </row>
     <row r="13">
@@ -4697,19 +4697,19 @@
         <v>65385</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52789</v>
+        <v>53801</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78119</v>
+        <v>77929</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09139741220762482</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07379088599996857</v>
+        <v>0.07520511178978356</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1091975768172057</v>
+        <v>0.1089333087540568</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>310</v>
@@ -4718,19 +4718,19 @@
         <v>169538</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>151395</v>
+        <v>152948</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>186818</v>
+        <v>187798</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1881770989869832</v>
+        <v>0.1881770989869833</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1680392656609425</v>
+        <v>0.1697633551415553</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2073562903624977</v>
+        <v>0.2084440943637537</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>408</v>
@@ -4739,19 +4739,19 @@
         <v>234923</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>213975</v>
+        <v>213680</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>258088</v>
+        <v>256222</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1453426689191672</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1323825965564436</v>
+        <v>0.1321997958675111</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1596747662644432</v>
+        <v>0.1585199736530437</v>
       </c>
     </row>
     <row r="14">
@@ -4768,19 +4768,19 @@
         <v>608424</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>593580</v>
+        <v>592746</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>625273</v>
+        <v>622972</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.850482360019475</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.829732672224418</v>
+        <v>0.8285668908151977</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8740346377534287</v>
+        <v>0.8708180529293658</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1191</v>
@@ -4789,19 +4789,19 @@
         <v>626792</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>605554</v>
+        <v>608008</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>646876</v>
+        <v>646855</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6957002089112289</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6721276146196408</v>
+        <v>0.6748510198630417</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7179927566425889</v>
+        <v>0.7179694808965724</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2048</v>
@@ -4810,19 +4810,19 @@
         <v>1235216</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1209396</v>
+        <v>1209465</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1261907</v>
+        <v>1259591</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7642063742856593</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7482322369794913</v>
+        <v>0.7482749397592661</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7807200116023145</v>
+        <v>0.7792868503640227</v>
       </c>
     </row>
     <row r="15">
